--- a/src/test/java/com/testData/Jombone_SignUpLastNameData.xlsx
+++ b/src/test/java/com/testData/Jombone_SignUpLastNameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aila\eclipse-workspace\jombone\src\test\java\com\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83D1598A-4705-4DB3-962E-B14218C11096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2377AF0E-4596-4D20-9246-EDC4A3C01472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{F2CA8C7A-6456-4EFF-93E9-06EFD680AA06}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{F2CA8C7A-6456-4EFF-93E9-06EFD680AA06}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>FirstName</t>
   </si>
@@ -49,12 +49,6 @@
     <t>Email</t>
   </si>
   <si>
-    <t>abcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyz</t>
-  </si>
-  <si>
-    <t>416-858-7777</t>
-  </si>
-  <si>
     <t>Bhargavi2022$</t>
   </si>
   <si>
@@ -82,10 +76,19 @@
     <t>saritha755@yahoo.ca</t>
   </si>
   <si>
-    <t>saritha756@yahoo.ca</t>
-  </si>
-  <si>
     <t>mobile</t>
+  </si>
+  <si>
+    <t>416-858-7781</t>
+  </si>
+  <si>
+    <t>416-858-7782</t>
+  </si>
+  <si>
+    <t>416-858-7783</t>
+  </si>
+  <si>
+    <t>416-858-7784</t>
   </si>
 </sst>
 </file>
@@ -138,10 +141,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -457,17 +460,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D47EA19F-2033-421A-BDD3-234B86A26070}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" customWidth="1"/>
     <col min="5" max="5" width="21.140625" customWidth="1"/>
   </cols>
@@ -483,7 +486,7 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -491,98 +494,80 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2">
         <v>1233355</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>14</v>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{97325FB9-9A0D-44D5-885D-1693A4498781}"/>
-    <hyperlink ref="C3:C6" r:id="rId2" display="saritha750@yahoo.ca" xr:uid="{A5DAB330-D0B3-457A-B881-F7F2E2CC3DFF}"/>
+    <hyperlink ref="C3:C5" r:id="rId2" display="saritha750@yahoo.ca" xr:uid="{A5DAB330-D0B3-457A-B881-F7F2E2CC3DFF}"/>
     <hyperlink ref="C3" r:id="rId3" xr:uid="{9FBFE5C5-5DCC-4D13-B39C-9E0A406E20EB}"/>
     <hyperlink ref="C4" r:id="rId4" xr:uid="{6150560A-EA39-47CA-8D93-AA0ED155454E}"/>
     <hyperlink ref="C5" r:id="rId5" xr:uid="{732D509E-DA65-4798-B569-ACEF18B11454}"/>
-    <hyperlink ref="C6" r:id="rId6" xr:uid="{7DEDCD9C-1865-4795-BE44-BBC8CA507B44}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
